--- a/metro_budget_exercise.xlsx
+++ b/metro_budget_exercise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mary van Valkenburg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14348\Documents\nssd10\lookups-budget-GenaSmith23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19ED61FC-0AAB-4DAC-83F6-00D6AC42053B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AA2D93-21AF-41B0-8D0A-85A8044F57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="90" windowWidth="21877" windowHeight="13080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="metro_budget" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="90">
   <si>
@@ -314,7 +336,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,7 +480,7 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1176,27 +1198,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P107"/>
+  <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B82" sqref="B82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="15.85546875" customWidth="1"/>
-    <col min="13" max="13" width="15.42578125" customWidth="1"/>
-    <col min="14" max="15" width="17.85546875" customWidth="1"/>
-    <col min="16" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="15.88671875" customWidth="1"/>
+    <col min="13" max="13" width="15.44140625" customWidth="1"/>
+    <col min="14" max="15" width="17.88671875" customWidth="1"/>
+    <col min="16" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1246,7 +1268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1256,7 +1278,18 @@
       <c r="C2">
         <v>341243679.13</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="D2">
+        <f>C2-B2</f>
+        <v>-15396420.870000005</v>
+      </c>
+      <c r="E2" s="5" t="e" cm="1">
+        <f t="array" ref="E2">F5C2-B2/D2</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IFERROR(RANK(E2,$E$2:$E$52,1),"")</f>
+        <v/>
+      </c>
       <c r="G2">
         <v>382685200</v>
       </c>
@@ -1272,7 +1305,7 @@
       </c>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1281,6 +1314,10 @@
       </c>
       <c r="C3">
         <v>321214.59000000003</v>
+      </c>
+      <c r="D3">
+        <f>(C3-B3)</f>
+        <v>-7585.4099999999744</v>
       </c>
       <c r="E3" s="5"/>
       <c r="G3">
@@ -1298,7 +1335,7 @@
       </c>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1308,7 +1345,14 @@
       <c r="C4">
         <v>3115157.5599999898</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="D4">
+        <f t="shared" ref="D3:D52" si="0">(C4-B4)</f>
+        <v>-15442.440000010189</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E3:E52" si="1">C4-B4/D4</f>
+        <v>3115360.2870301739</v>
+      </c>
       <c r="G4">
         <v>3652300</v>
       </c>
@@ -1324,7 +1368,7 @@
       </c>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1334,7 +1378,14 @@
       <c r="C5">
         <v>6947552.6699999999</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-723147.33000000007</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>6947563.2773820395</v>
+      </c>
       <c r="G5">
         <v>7968300</v>
       </c>
@@ -1350,7 +1401,7 @@
       </c>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1360,7 +1411,14 @@
       <c r="C6">
         <v>385908.52</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-23391.479999999981</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>385926.01782399404</v>
+      </c>
       <c r="G6">
         <v>428500</v>
       </c>
@@ -1376,7 +1434,7 @@
       </c>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1386,7 +1444,14 @@
       <c r="C7">
         <v>2946071.21</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-382928.79000000004</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>2946079.9035223648</v>
+      </c>
       <c r="G7">
         <v>3390900</v>
       </c>
@@ -1402,7 +1467,7 @@
       </c>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1412,7 +1477,14 @@
       <c r="C8">
         <v>1315623.30999999</v>
       </c>
-      <c r="E8" s="5"/>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-236476.69000000996</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>1315629.8734375956</v>
+      </c>
       <c r="G8">
         <v>1590700</v>
       </c>
@@ -1428,7 +1500,7 @@
       </c>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1438,7 +1510,14 @@
       <c r="C9">
         <v>8952825.2799999993</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-396574.72000000067</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>8952848.855380699</v>
+      </c>
       <c r="G9">
         <v>11073700</v>
       </c>
@@ -1454,7 +1533,7 @@
       </c>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1464,7 +1543,14 @@
       <c r="C10">
         <v>407090.37</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-36209.630000000005</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>407102.61259955156</v>
+      </c>
       <c r="G10">
         <v>495200</v>
       </c>
@@ -1480,7 +1566,7 @@
       </c>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1490,7 +1576,14 @@
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E11" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G11">
         <v>0</v>
       </c>
@@ -1506,7 +1599,7 @@
       </c>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1516,7 +1609,14 @@
       <c r="C12">
         <v>4066595.33</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-214304.66999999993</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>4066615.305766277</v>
+      </c>
       <c r="G12">
         <v>4700400</v>
       </c>
@@ -1532,7 +1632,7 @@
       </c>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1542,7 +1642,14 @@
       <c r="C13">
         <v>5772288.3300000001</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-75511.669999999925</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>5772365.7723344099</v>
+      </c>
       <c r="G13">
         <v>6223700</v>
       </c>
@@ -1558,7 +1665,7 @@
       </c>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1568,7 +1675,14 @@
       <c r="C14">
         <v>505017.37</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-6982.6300000000047</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>505090.69480741495</v>
+      </c>
       <c r="G14">
         <v>530500</v>
       </c>
@@ -1584,7 +1698,7 @@
       </c>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1594,7 +1708,14 @@
       <c r="C15">
         <v>156545919.90000001</v>
       </c>
-      <c r="E15" s="5"/>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>496819.90000000596</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>156545605.80408719</v>
+      </c>
       <c r="G15">
         <v>184167800</v>
       </c>
@@ -1610,7 +1731,7 @@
       </c>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1620,7 +1741,14 @@
       <c r="C16">
         <v>6522480.4599999897</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-78219.540000010282</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>6522564.8468424594</v>
+      </c>
       <c r="G16">
         <v>7352500</v>
       </c>
@@ -1636,7 +1764,7 @@
       </c>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1774,14 @@
       <c r="C17">
         <v>14439480.050000001</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-421319.94999999925</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>14439515.322006466</v>
+      </c>
       <c r="G17">
         <v>15309700</v>
       </c>
@@ -1662,7 +1797,7 @@
       </c>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1672,7 +1807,14 @@
       <c r="C18">
         <v>2615303.8999999901</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-149396.10000000987</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>2615322.4058378264</v>
+      </c>
       <c r="G18">
         <v>2861000</v>
       </c>
@@ -1688,7 +1830,7 @@
       </c>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1698,7 +1840,14 @@
       <c r="C19">
         <v>8460963.1999999899</v>
       </c>
-      <c r="E19" s="5"/>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-376336.80000001006</v>
+      </c>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>8460986.6824231818</v>
+      </c>
       <c r="G19">
         <v>9713300</v>
       </c>
@@ -1714,7 +1863,7 @@
       </c>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1873,14 @@
       <c r="C20">
         <v>124384360.159999</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-1539.8400010019541</v>
+      </c>
+      <c r="E20" s="5">
+        <f t="shared" si="1"/>
+        <v>124465138.61744851</v>
+      </c>
       <c r="G20">
         <v>131849400</v>
       </c>
@@ -1740,7 +1896,7 @@
       </c>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1750,7 +1906,14 @@
       <c r="C21">
         <v>22408587.5499999</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-1923512.4500000998</v>
+      </c>
+      <c r="E21" s="5">
+        <f t="shared" si="1"/>
+        <v>22408600.199827041</v>
+      </c>
       <c r="G21">
         <v>24497400</v>
       </c>
@@ -1766,7 +1929,7 @@
       </c>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>36</v>
       </c>
@@ -1776,7 +1939,14 @@
       <c r="C22">
         <v>11412339.8799999</v>
       </c>
-      <c r="E22" s="5"/>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-153660.12000009976</v>
+      </c>
+      <c r="E22" s="5">
+        <f t="shared" si="1"/>
+        <v>11412415.150017912</v>
+      </c>
       <c r="G22">
         <v>11980700</v>
       </c>
@@ -1792,7 +1962,7 @@
       </c>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1802,7 +1972,14 @@
       <c r="C23">
         <v>20036743.4099999</v>
       </c>
-      <c r="E23" s="5"/>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-825956.59000010043</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="1"/>
+        <v>20036768.668833416</v>
+      </c>
       <c r="G23">
         <v>22683800</v>
       </c>
@@ -1818,7 +1995,7 @@
       </c>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1828,7 +2005,14 @@
       <c r="C24">
         <v>904969.19</v>
       </c>
-      <c r="E24" s="5"/>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-12230.810000000056</v>
+      </c>
+      <c r="E24" s="5">
+        <f t="shared" si="1"/>
+        <v>905044.18094499863</v>
+      </c>
       <c r="G24">
         <v>1112700</v>
       </c>
@@ -1844,7 +2028,7 @@
       </c>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -1854,7 +2038,14 @@
       <c r="C25">
         <v>479149.53</v>
       </c>
-      <c r="E25" s="5"/>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-4950.4699999999721</v>
+      </c>
+      <c r="E25" s="5">
+        <f t="shared" si="1"/>
+        <v>479247.31869481085</v>
+      </c>
       <c r="G25">
         <v>505200</v>
       </c>
@@ -1870,7 +2061,7 @@
       </c>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>40</v>
       </c>
@@ -1880,7 +2071,14 @@
       <c r="C26">
         <v>4801960.08</v>
       </c>
-      <c r="E26" s="5"/>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-447839.91999999993</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="1"/>
+        <v>4801971.8024922693</v>
+      </c>
       <c r="G26">
         <v>5442200</v>
       </c>
@@ -1896,7 +2094,7 @@
       </c>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>41</v>
       </c>
@@ -1906,7 +2104,14 @@
       <c r="C27">
         <v>0</v>
       </c>
-      <c r="E27" s="5"/>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E27" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G27">
         <v>0</v>
       </c>
@@ -1922,7 +2127,7 @@
       </c>
       <c r="O27" s="5"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -1932,7 +2137,14 @@
       <c r="C28">
         <v>1250442.02</v>
       </c>
-      <c r="E28" s="5"/>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-132457.97999999998</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="1"/>
+        <v>1250452.4602920837</v>
+      </c>
       <c r="G28">
         <v>1545700</v>
       </c>
@@ -1948,7 +2160,7 @@
       </c>
       <c r="O28" s="5"/>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>43</v>
       </c>
@@ -1958,7 +2170,14 @@
       <c r="C29">
         <v>2523884.71</v>
       </c>
-      <c r="E29" s="5"/>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-37915.290000000037</v>
+      </c>
+      <c r="E29" s="5">
+        <f t="shared" si="1"/>
+        <v>2523952.2764092241</v>
+      </c>
       <c r="G29">
         <v>2779500</v>
       </c>
@@ -1974,7 +2193,7 @@
       </c>
       <c r="O29" s="5"/>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>44</v>
       </c>
@@ -1984,7 +2203,14 @@
       <c r="C30">
         <v>12030494.1</v>
       </c>
-      <c r="E30" s="5"/>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-101705.90000000037</v>
+      </c>
+      <c r="E30" s="5">
+        <f t="shared" si="1"/>
+        <v>12030613.387081673</v>
+      </c>
       <c r="G30">
         <v>12735900</v>
       </c>
@@ -2000,7 +2226,7 @@
       </c>
       <c r="O30" s="5"/>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>45</v>
       </c>
@@ -2010,7 +2236,14 @@
       <c r="C31">
         <v>1740827.69</v>
       </c>
-      <c r="E31" s="5"/>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-24772.310000000056</v>
+      </c>
+      <c r="E31" s="5">
+        <f t="shared" si="1"/>
+        <v>1740898.9631271325</v>
+      </c>
       <c r="G31">
         <v>1823300</v>
       </c>
@@ -2026,7 +2259,7 @@
       </c>
       <c r="O31" s="5"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -2036,7 +2269,14 @@
       <c r="C32">
         <v>5925637.7199999904</v>
       </c>
-      <c r="E32" s="5"/>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-73762.280000009574</v>
+      </c>
+      <c r="E32" s="5">
+        <f t="shared" si="1"/>
+        <v>5925719.0542537579</v>
+      </c>
       <c r="G32">
         <v>6195500</v>
       </c>
@@ -2052,7 +2292,7 @@
       </c>
       <c r="O32" s="5"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -2062,7 +2302,14 @@
       <c r="C33">
         <v>920284264.73000002</v>
       </c>
-      <c r="E33" s="5"/>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-7418835.2699990273</v>
+      </c>
+      <c r="E33" s="5">
+        <f t="shared" si="1"/>
+        <v>920284389.77700078</v>
+      </c>
       <c r="G33">
         <v>979671000</v>
       </c>
@@ -2078,7 +2325,7 @@
       </c>
       <c r="O33" s="5"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -2088,7 +2335,14 @@
       <c r="C34">
         <v>4109958.22</v>
       </c>
-      <c r="E34" s="5"/>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-79341.779999999795</v>
+      </c>
+      <c r="E34" s="5">
+        <f t="shared" si="1"/>
+        <v>4110011.0206808015</v>
+      </c>
       <c r="G34">
         <v>4350600</v>
       </c>
@@ -2104,7 +2358,7 @@
       </c>
       <c r="O34" s="5"/>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -2114,7 +2368,14 @@
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="5"/>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G35">
         <v>0</v>
       </c>
@@ -2130,7 +2391,7 @@
       </c>
       <c r="O35" s="5"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>50</v>
       </c>
@@ -2140,7 +2401,14 @@
       <c r="C36">
         <v>735423.27999999898</v>
       </c>
-      <c r="E36" s="5"/>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-62776.72000000102</v>
+      </c>
+      <c r="E36" s="5">
+        <f t="shared" si="1"/>
+        <v>735435.99490450497</v>
+      </c>
       <c r="G36">
         <v>898700</v>
       </c>
@@ -2156,7 +2424,7 @@
       </c>
       <c r="O36" s="5"/>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -2166,7 +2434,14 @@
       <c r="C37">
         <v>2005447.73999999</v>
       </c>
-      <c r="E37" s="5"/>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-82352.260000010021</v>
+      </c>
+      <c r="E37" s="5">
+        <f t="shared" si="1"/>
+        <v>2005473.0920668307</v>
+      </c>
       <c r="G37">
         <v>2229200</v>
       </c>
@@ -2182,7 +2457,7 @@
       </c>
       <c r="O37" s="5"/>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -2192,7 +2467,14 @@
       <c r="C38">
         <v>838669.82</v>
       </c>
-      <c r="E38" s="5"/>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-16630.180000000051</v>
+      </c>
+      <c r="E38" s="5">
+        <f t="shared" si="1"/>
+        <v>838721.25059185165</v>
+      </c>
       <c r="G38">
         <v>792800</v>
       </c>
@@ -2208,7 +2490,7 @@
       </c>
       <c r="O38" s="5"/>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>53</v>
       </c>
@@ -2218,7 +2500,14 @@
       <c r="C39">
         <v>813108.87</v>
       </c>
-      <c r="E39" s="5"/>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-70791.13</v>
+      </c>
+      <c r="E39" s="5">
+        <f t="shared" si="1"/>
+        <v>813121.3560275574</v>
+      </c>
       <c r="G39">
         <v>1294400</v>
       </c>
@@ -2234,7 +2523,7 @@
       </c>
       <c r="O39" s="5"/>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -2244,7 +2533,14 @@
       <c r="C40">
         <v>37565141.859999903</v>
       </c>
-      <c r="E40" s="5"/>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>-816758.14000009745</v>
+      </c>
+      <c r="E40" s="5">
+        <f t="shared" si="1"/>
+        <v>37565188.852981202</v>
+      </c>
       <c r="G40">
         <v>39964900</v>
       </c>
@@ -2260,7 +2556,7 @@
       </c>
       <c r="O40" s="5"/>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -2270,7 +2566,14 @@
       <c r="C41">
         <v>4409060.2099999897</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-184239.79000001028</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="1"/>
+        <v>4409085.1410965789</v>
+      </c>
       <c r="G41">
         <v>5089500</v>
       </c>
@@ -2286,7 +2589,7 @@
       </c>
       <c r="O41" s="5"/>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>56</v>
       </c>
@@ -2296,7 +2599,14 @@
       <c r="C42">
         <v>188551675.67999899</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-41624.320001006126</v>
+      </c>
+      <c r="E42" s="5">
+        <f t="shared" si="1"/>
+        <v>188556206.52398625</v>
+      </c>
       <c r="G42">
         <v>199130300</v>
       </c>
@@ -2312,7 +2622,7 @@
       </c>
       <c r="O42" s="5"/>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>57</v>
       </c>
@@ -2322,7 +2632,14 @@
       <c r="C43">
         <v>7968645.8300000001</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-166754.16999999993</v>
+      </c>
+      <c r="E43" s="5">
+        <f t="shared" si="1"/>
+        <v>7968694.6167859621</v>
+      </c>
       <c r="G43">
         <v>8560800</v>
       </c>
@@ -2338,7 +2655,7 @@
       </c>
       <c r="O43" s="5"/>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -2348,7 +2665,14 @@
       <c r="C44">
         <v>29789104.379999999</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-294095.62000000104</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="1"/>
+        <v>29789206.670540743</v>
+      </c>
       <c r="G44">
         <v>31040700</v>
       </c>
@@ -2364,7 +2688,7 @@
       </c>
       <c r="O44" s="5"/>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>59</v>
       </c>
@@ -2374,7 +2698,14 @@
       <c r="C45">
         <v>54589584.0499999</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-712015.95000009984</v>
+      </c>
+      <c r="E45" s="5">
+        <f t="shared" si="1"/>
+        <v>54589661.719046496</v>
+      </c>
       <c r="G45">
         <v>56792200</v>
       </c>
@@ -2390,7 +2721,7 @@
       </c>
       <c r="O45" s="5"/>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -2400,7 +2731,14 @@
       <c r="C46">
         <v>258322.43</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-777.57000000000698</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" si="1"/>
+        <v>258655.64758812712</v>
+      </c>
       <c r="G46">
         <v>266000</v>
       </c>
@@ -2416,7 +2754,7 @@
       </c>
       <c r="O46" s="5"/>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>61</v>
       </c>
@@ -2426,7 +2764,14 @@
       <c r="C47">
         <v>70378426.719999999</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-12273.280000001192</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="1"/>
+        <v>70384162.000218496</v>
+      </c>
       <c r="G47">
         <v>73467000</v>
       </c>
@@ -2442,7 +2787,7 @@
       </c>
       <c r="O47" s="5"/>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -2452,7 +2797,14 @@
       <c r="C48">
         <v>6527352.5699999901</v>
       </c>
-      <c r="E48" s="5"/>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>-209747.43000000995</v>
+      </c>
+      <c r="E48" s="5">
+        <f t="shared" si="1"/>
+        <v>6527384.6900598165</v>
+      </c>
       <c r="G48">
         <v>7214700</v>
       </c>
@@ -2468,7 +2820,7 @@
       </c>
       <c r="O48" s="5"/>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>63</v>
       </c>
@@ -2478,7 +2830,14 @@
       <c r="C49">
         <v>90499.43</v>
       </c>
-      <c r="E49" s="5"/>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-1700.570000000007</v>
+      </c>
+      <c r="E49" s="5">
+        <f t="shared" si="1"/>
+        <v>90553.647115437765</v>
+      </c>
       <c r="G49">
         <v>102600</v>
       </c>
@@ -2494,7 +2853,7 @@
       </c>
       <c r="O49" s="5"/>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>64</v>
       </c>
@@ -2504,7 +2863,14 @@
       <c r="C50">
         <v>832600</v>
       </c>
-      <c r="E50" s="5"/>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E50" s="5" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
       <c r="G50">
         <v>859100</v>
       </c>
@@ -2520,7 +2886,7 @@
       </c>
       <c r="O50" s="5"/>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>65</v>
       </c>
@@ -2530,7 +2896,14 @@
       <c r="C51">
         <v>8499425.3399999905</v>
       </c>
-      <c r="E51" s="5"/>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-110074.66000000946</v>
+      </c>
+      <c r="E51" s="5">
+        <f t="shared" si="1"/>
+        <v>8499503.5550950896</v>
+      </c>
       <c r="G51">
         <v>8925500</v>
       </c>
@@ -2546,7 +2919,7 @@
       </c>
       <c r="O51" s="5"/>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>66</v>
       </c>
@@ -2556,7 +2929,14 @@
       <c r="C52">
         <v>2254684.7999999998</v>
       </c>
-      <c r="E52" s="5"/>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-196315.20000000019</v>
+      </c>
+      <c r="E52" s="5">
+        <f t="shared" si="1"/>
+        <v>2254697.2850240837</v>
+      </c>
       <c r="G52">
         <v>2440700</v>
       </c>
@@ -2572,12 +2952,12 @@
       </c>
       <c r="O52" s="5"/>
     </row>
-    <row r="54" spans="1:15" ht="15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -2591,42 +2971,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>0</v>
       </c>
@@ -2640,43 +3020,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="15">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="15">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="15"/>
-    <row r="72" spans="1:4" ht="15">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="15">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,48 +3069,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15"/>
-    <row r="81" spans="1:7" ht="15">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="15">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B83" s="1" t="s">
         <v>71</v>
       </c>
@@ -2739,34 +3117,33 @@
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>73</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>74</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>75</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:7" ht="15"/>
-    <row r="88" spans="1:7" ht="15">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="15">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>77</v>
       </c>
@@ -2782,7 +3159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="15">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B90" s="8" t="s">
         <v>0</v>
       </c>
@@ -2802,7 +3179,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -2810,7 +3187,7 @@
       <c r="E91" s="5"/>
       <c r="G91" s="5"/>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>74</v>
       </c>
@@ -2818,7 +3195,7 @@
       <c r="E92" s="5"/>
       <c r="G92" s="5"/>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>75</v>
       </c>
@@ -2826,12 +3203,12 @@
       <c r="E93" s="5"/>
       <c r="G93" s="5"/>
     </row>
-    <row r="95" spans="1:7" ht="15">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="15">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>77</v>
       </c>
@@ -2847,7 +3224,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="15">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>0</v>
       </c>
@@ -2867,7 +3244,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>73</v>
       </c>
@@ -2876,7 +3253,7 @@
       <c r="G98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>74</v>
       </c>
@@ -2885,7 +3262,7 @@
       <c r="G99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>75</v>
       </c>
@@ -2894,12 +3271,6 @@
       <c r="G100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="102" spans="1:9" ht="15"/>
-    <row r="103" spans="1:9" ht="15"/>
-    <row r="104" spans="1:9" ht="15"/>
-    <row r="105" spans="1:9" ht="15"/>
-    <row r="106" spans="1:9" ht="15"/>
-    <row r="107" spans="1:9" ht="15"/>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A83" xr:uid="{0ECE0BAD-DC74-4E7B-8842-0609702F3664}">
@@ -2919,13 +3290,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2933,7 +3304,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2941,7 +3312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -2949,7 +3320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2957,7 +3328,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +3336,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
@@ -2973,7 +3344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
@@ -2981,7 +3352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -2989,7 +3360,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -2997,7 +3368,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
